--- a/Data/Results/RuntimeResult_RuleTest.xlsx
+++ b/Data/Results/RuntimeResult_RuleTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Master\Hochschule Fulda\Module\Masterarbeit\Implementierungen\Data\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Hochschule Fulda\Master\Masterarbeit\Implementierungen\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276EE86A-B942-4B1F-80FF-E738D6889484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EEF1D8-9B80-4632-A1DA-16F0731A42D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,7 +892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -902,9 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:S14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1004,7 +1002,7 @@
         <v>4137964</v>
       </c>
       <c r="I2">
-        <v>3.8587061</v>
+        <v>3.9667037000000001</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1016,19 +1014,15 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>SUMIFS(D:D,A:A,K2,C:C,M2)/COUNTIFS(A:A,K2,C:C,M2)</f>
         <v>861</v>
       </c>
       <c r="O2">
-        <f>SUMIFS(E:E,A:A,K2,C:C,M2)/COUNTIFS(A:A,K2,C:C,M2)</f>
         <v>54</v>
       </c>
       <c r="P2">
-        <f>SUMIFS(F:F,A:A,K2,C:C,M2)/COUNTIFS(A:A,K2,C:C,M2)</f>
         <v>2</v>
       </c>
       <c r="Q2">
-        <f>SUMIFS(G:G,A:A,K2,C:C,M2)/COUNTIFS(A:A,K2,C:C,M2)</f>
         <v>5241</v>
       </c>
       <c r="R2">
@@ -1037,7 +1031,7 @@
       </c>
       <c r="S2">
         <f>SUMIFS(I:I,A:A,K2,C:C,M2)/COUNTIFS(A:A,K2,C:C,M2)</f>
-        <v>3.7383158399999998</v>
+        <v>3.7435215099999999</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1066,7 +1060,7 @@
         <v>4137915</v>
       </c>
       <c r="I3">
-        <v>4.7653138000000004</v>
+        <v>5.0233246999999999</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1078,28 +1072,24 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N15" si="0">SUMIFS(D:D,A:A,K3,C:C,M3)/COUNTIFS(A:A,K3,C:C,M3)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O15" si="1">SUMIFS(E:E,A:A,K3,C:C,M3)/COUNTIFS(A:A,K3,C:C,M3)</f>
         <v>915</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P15" si="2">SUMIFS(F:F,A:A,K3,C:C,M3)/COUNTIFS(A:A,K3,C:C,M3)</f>
         <v>2</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q15" si="3">SUMIFS(G:G,A:A,K3,C:C,M3)/COUNTIFS(A:A,K3,C:C,M3)</f>
         <v>5241</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R15" si="4">SUMIFS(H:H,A:A,K3,C:C,M3)/COUNTIFS(A:A,K3,C:C,M3)</f>
+        <f t="shared" ref="R3:R15" si="0">SUMIFS(H:H,A:A,K3,C:C,M3)/COUNTIFS(A:A,K3,C:C,M3)</f>
         <v>4137964</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S15" si="5">SUMIFS(I:I,A:A,K3,C:C,M3)/COUNTIFS(A:A,K3,C:C,M3)</f>
-        <v>3.7312848000000001</v>
+        <f t="shared" ref="S3:S15" si="1">SUMIFS(I:I,A:A,K3,C:C,M3)/COUNTIFS(A:A,K3,C:C,M3)</f>
+        <v>3.7497227199999998</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1128,7 +1118,7 @@
         <v>14575397</v>
       </c>
       <c r="I4">
-        <v>8.2900345000000009</v>
+        <v>8.3237120000000004</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1140,28 +1130,24 @@
         <v>2</v>
       </c>
       <c r="N4">
+        <v>870</v>
+      </c>
+      <c r="O4">
+        <v>54</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>5231</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="0"/>
-        <v>870</v>
-      </c>
-      <c r="O4">
+        <v>14575397</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>5231</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="4"/>
-        <v>14575397</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="5"/>
-        <v>8.3881879299999991</v>
+        <v>8.2204220200000009</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1190,7 +1176,7 @@
         <v>14575248</v>
       </c>
       <c r="I5">
-        <v>13.313772</v>
+        <v>13.7320001</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1202,28 +1188,24 @@
         <v>3</v>
       </c>
       <c r="N5">
+        <v>862</v>
+      </c>
+      <c r="O5">
+        <v>32</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>5240</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="0"/>
-        <v>862</v>
-      </c>
-      <c r="O5">
+        <v>5144520</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>5240</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="4"/>
-        <v>5144520</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="5"/>
-        <v>4.1854316100000002</v>
+        <v>4.1945671100000004</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1252,7 +1234,7 @@
         <v>5144520</v>
       </c>
       <c r="I6">
-        <v>4.1662065999999998</v>
+        <v>4.2070163999999997</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1264,28 +1246,24 @@
         <v>4</v>
       </c>
       <c r="N6">
+        <v>861</v>
+      </c>
+      <c r="O6">
+        <v>53</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>5241</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="0"/>
-        <v>861</v>
-      </c>
-      <c r="O6">
+        <v>4138109</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="3"/>
-        <v>5241</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="4"/>
-        <v>4138109</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="5"/>
-        <v>3.7392407399999996</v>
+        <v>3.7711297999999998</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1314,7 +1292,7 @@
         <v>5146394</v>
       </c>
       <c r="I7">
-        <v>5.1025777999999997</v>
+        <v>5.2001622999999997</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1326,28 +1304,24 @@
         <v>5</v>
       </c>
       <c r="N7">
+        <v>861</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>5241</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="0"/>
-        <v>861</v>
-      </c>
-      <c r="O7">
+        <v>4138016</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="3"/>
-        <v>5241</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="4"/>
-        <v>4138016</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="5"/>
-        <v>3.7125140400000007</v>
+        <v>3.7541696799999995</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1376,7 +1350,7 @@
         <v>4138109</v>
       </c>
       <c r="I8">
-        <v>3.7060273000000001</v>
+        <v>3.8128517</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1388,28 +1362,24 @@
         <v>6</v>
       </c>
       <c r="N8">
+        <v>861</v>
+      </c>
+      <c r="O8">
+        <v>54</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>5241</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="0"/>
-        <v>862</v>
-      </c>
-      <c r="O8">
+        <v>4137966</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="3"/>
-        <v>5239</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="4"/>
-        <v>6137964</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="5"/>
-        <v>4.6971460999999994</v>
+        <v>3.7794522899999996</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1438,7 +1408,7 @@
         <v>4138060</v>
       </c>
       <c r="I9">
-        <v>4.6720306000000003</v>
+        <v>5.0303792999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1450,28 +1420,24 @@
         <v>0</v>
       </c>
       <c r="N9">
+        <v>861</v>
+      </c>
+      <c r="O9">
+        <v>54</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>5241</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="0"/>
-        <v>861</v>
-      </c>
-      <c r="O9">
+        <v>4137915</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>5241</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="4"/>
-        <v>4137915</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="5"/>
-        <v>4.7757591100000001</v>
+        <v>4.724767439999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1500,7 +1466,7 @@
         <v>4138016</v>
       </c>
       <c r="I10">
-        <v>3.7168263000000001</v>
+        <v>3.8721499000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1512,28 +1478,24 @@
         <v>1</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>915</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>5241</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
+        <v>4137915</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="1"/>
-        <v>915</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="3"/>
-        <v>5241</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="4"/>
-        <v>4137915</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="5"/>
-        <v>4.7755319399999996</v>
+        <v>4.7413531799999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1562,7 +1524,7 @@
         <v>4137967</v>
       </c>
       <c r="I11">
-        <v>4.6850016999999999</v>
+        <v>4.7696813000000002</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1574,28 +1536,24 @@
         <v>2</v>
       </c>
       <c r="N11">
+        <v>870</v>
+      </c>
+      <c r="O11">
+        <v>54</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>5231</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="0"/>
-        <v>870</v>
-      </c>
-      <c r="O11">
+        <v>14575248</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="3"/>
-        <v>5231</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="4"/>
-        <v>14575248</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="5"/>
-        <v>13.54864527</v>
+        <v>13.55927402</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1609,22 +1567,22 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H12">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I12">
-        <v>4.6935625999999999</v>
+        <v>3.7653829999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1636,28 +1594,24 @@
         <v>3</v>
       </c>
       <c r="N12">
+        <v>862</v>
+      </c>
+      <c r="O12">
+        <v>32</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>5240</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="0"/>
-        <v>862</v>
-      </c>
-      <c r="O12">
+        <v>5146394</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>5240</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="4"/>
-        <v>5146394</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="5"/>
-        <v>5.2043712900000001</v>
+        <v>5.1517707099999992</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1671,22 +1625,22 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H13">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I13">
-        <v>6.9337644000000003</v>
+        <v>4.9267196000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1698,28 +1652,24 @@
         <v>4</v>
       </c>
       <c r="N13">
+        <v>861</v>
+      </c>
+      <c r="O13">
+        <v>53</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>5241</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="0"/>
-        <v>861</v>
-      </c>
-      <c r="O13">
+        <v>4138060</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>5241</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="4"/>
-        <v>4138060</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="5"/>
-        <v>4.7356726899999995</v>
+        <v>4.7485620800000001</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1748,7 +1698,7 @@
         <v>4137964</v>
       </c>
       <c r="I14">
-        <v>3.7709883</v>
+        <v>3.7282641999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1760,28 +1710,24 @@
         <v>5</v>
       </c>
       <c r="N14">
+        <v>861</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>5241</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="0"/>
-        <v>861</v>
-      </c>
-      <c r="O14">
+        <v>4137967</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>5241</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="4"/>
-        <v>4137967</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="5"/>
-        <v>4.7477928399999998</v>
+        <v>4.6994269100000006</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1810,7 +1756,7 @@
         <v>4137915</v>
       </c>
       <c r="I15">
-        <v>4.7595770000000002</v>
+        <v>4.8169316000000002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1822,28 +1768,24 @@
         <v>6</v>
       </c>
       <c r="N15">
+        <v>861</v>
+      </c>
+      <c r="O15">
+        <v>54</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>5241</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="0"/>
-        <v>862</v>
-      </c>
-      <c r="O15">
+        <v>4137917</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>5239</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="4"/>
-        <v>6137915</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="5"/>
-        <v>7.04450997</v>
+        <v>4.7525586299999993</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1872,7 +1814,7 @@
         <v>4137964</v>
       </c>
       <c r="I16">
-        <v>3.6773180999999999</v>
+        <v>3.6924142</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1901,7 +1843,7 @@
         <v>4137915</v>
       </c>
       <c r="I17">
-        <v>4.6975249999999997</v>
+        <v>4.7496499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1930,7 +1872,7 @@
         <v>14575397</v>
       </c>
       <c r="I18">
-        <v>8.2951891999999994</v>
+        <v>8.1935681999999996</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1959,7 +1901,7 @@
         <v>14575248</v>
       </c>
       <c r="I19">
-        <v>13.6359862</v>
+        <v>13.398427699999999</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1988,7 +1930,7 @@
         <v>5144520</v>
       </c>
       <c r="I20">
-        <v>4.1500155999999997</v>
+        <v>4.1451171000000002</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2017,7 +1959,7 @@
         <v>5146394</v>
       </c>
       <c r="I21">
-        <v>5.3120494999999996</v>
+        <v>5.0965275999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2046,7 +1988,7 @@
         <v>4138109</v>
       </c>
       <c r="I22">
-        <v>3.7830815000000002</v>
+        <v>3.8024524999999998</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2075,7 +2017,7 @@
         <v>4138060</v>
       </c>
       <c r="I23">
-        <v>4.6133297000000004</v>
+        <v>4.6686262999999997</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,7 +2046,7 @@
         <v>4138016</v>
       </c>
       <c r="I24">
-        <v>3.7712469</v>
+        <v>3.7542667000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2133,7 +2075,7 @@
         <v>4137967</v>
       </c>
       <c r="I25">
-        <v>4.7048693999999998</v>
+        <v>4.6553031000000002</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2147,22 +2089,22 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E26">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H26">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I26">
-        <v>4.6361217999999997</v>
+        <v>3.7431431000000002</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2176,22 +2118,22 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E27">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H27">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I27">
-        <v>7.0220288000000002</v>
+        <v>4.6367707999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2220,7 +2162,7 @@
         <v>4137964</v>
       </c>
       <c r="I28">
-        <v>3.7185678000000002</v>
+        <v>3.6925142000000002</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2249,7 +2191,7 @@
         <v>4137915</v>
       </c>
       <c r="I29">
-        <v>4.7674133000000003</v>
+        <v>4.6774294999999997</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2278,7 +2220,7 @@
         <v>4137964</v>
       </c>
       <c r="I30">
-        <v>3.7174393000000001</v>
+        <v>3.6892938000000002</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2307,7 +2249,7 @@
         <v>4137915</v>
       </c>
       <c r="I31">
-        <v>4.6301661000000003</v>
+        <v>4.8021884999999997</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2336,7 +2278,7 @@
         <v>14575397</v>
       </c>
       <c r="I32">
-        <v>8.3141625000000001</v>
+        <v>8.1718820999999995</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2365,7 +2307,7 @@
         <v>14575248</v>
       </c>
       <c r="I33">
-        <v>13.4450398</v>
+        <v>13.4551435</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2394,7 +2336,7 @@
         <v>5144520</v>
       </c>
       <c r="I34">
-        <v>4.1660808999999999</v>
+        <v>4.2675286999999997</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2423,7 +2365,7 @@
         <v>5146394</v>
       </c>
       <c r="I35">
-        <v>5.0971599000000003</v>
+        <v>5.3281580999999996</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2452,7 +2394,7 @@
         <v>4138109</v>
       </c>
       <c r="I36">
-        <v>3.7426026000000001</v>
+        <v>3.7266002</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2481,7 +2423,7 @@
         <v>4138060</v>
       </c>
       <c r="I37">
-        <v>4.7631576000000004</v>
+        <v>4.7795065000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2510,7 +2452,7 @@
         <v>4138016</v>
       </c>
       <c r="I38">
-        <v>3.6571444999999998</v>
+        <v>3.8791788</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2539,7 +2481,7 @@
         <v>4137967</v>
       </c>
       <c r="I39">
-        <v>4.6886612999999997</v>
+        <v>4.7543977000000002</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2553,22 +2495,22 @@
         <v>6</v>
       </c>
       <c r="D40">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E40">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H40">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I40">
-        <v>4.6774550000000001</v>
+        <v>3.7044771999999999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2582,22 +2524,22 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E41">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H41">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I41">
-        <v>7.026281</v>
+        <v>4.7922728000000001</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2626,7 +2568,7 @@
         <v>4137964</v>
       </c>
       <c r="I42">
-        <v>3.7693436999999999</v>
+        <v>3.9048886</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2655,7 +2597,7 @@
         <v>4137915</v>
       </c>
       <c r="I43">
-        <v>4.7382759999999999</v>
+        <v>4.8777355</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2684,7 +2626,7 @@
         <v>4137964</v>
       </c>
       <c r="I44">
-        <v>3.6653557999999999</v>
+        <v>3.7883795</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2713,7 +2655,7 @@
         <v>4137915</v>
       </c>
       <c r="I45">
-        <v>4.7546976000000001</v>
+        <v>4.6487093000000002</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2742,7 +2684,7 @@
         <v>14575397</v>
       </c>
       <c r="I46">
-        <v>8.4549562999999992</v>
+        <v>8.1522431999999991</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2771,7 +2713,7 @@
         <v>14575248</v>
       </c>
       <c r="I47">
-        <v>13.595055199999999</v>
+        <v>14.0876187</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2800,7 +2742,7 @@
         <v>5144520</v>
       </c>
       <c r="I48">
-        <v>4.1613677999999998</v>
+        <v>4.2766506</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2829,7 +2771,7 @@
         <v>5146394</v>
       </c>
       <c r="I49">
-        <v>5.1899820999999999</v>
+        <v>5.2508470000000003</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2858,7 +2800,7 @@
         <v>4138109</v>
       </c>
       <c r="I50">
-        <v>3.7526149000000002</v>
+        <v>3.8003078000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2887,7 +2829,7 @@
         <v>4138060</v>
       </c>
       <c r="I51">
-        <v>4.7672052000000003</v>
+        <v>4.8246086999999998</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2916,7 +2858,7 @@
         <v>4138016</v>
       </c>
       <c r="I52">
-        <v>3.6581687000000001</v>
+        <v>3.6878142999999999</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2945,7 +2887,7 @@
         <v>4137967</v>
       </c>
       <c r="I53">
-        <v>4.7301934000000001</v>
+        <v>4.6295976000000003</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2959,22 +2901,22 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E54">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H54">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I54">
-        <v>4.6865402999999999</v>
+        <v>3.7413647999999999</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2988,22 +2930,22 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H55">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I55">
-        <v>6.9462891000000004</v>
+        <v>4.7881014999999998</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3032,7 +2974,7 @@
         <v>4137964</v>
       </c>
       <c r="I56">
-        <v>3.6422710999999999</v>
+        <v>3.9240949999999999</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3061,7 +3003,7 @@
         <v>4137915</v>
       </c>
       <c r="I57">
-        <v>4.8118088999999999</v>
+        <v>4.7720408000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3090,7 +3032,7 @@
         <v>4137964</v>
       </c>
       <c r="I58">
-        <v>3.6821337999999999</v>
+        <v>3.7395697000000001</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3119,7 +3061,7 @@
         <v>4137915</v>
       </c>
       <c r="I59">
-        <v>4.7835980999999999</v>
+        <v>4.6154120000000001</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3148,7 +3090,7 @@
         <v>14575397</v>
       </c>
       <c r="I60">
-        <v>8.5121886999999994</v>
+        <v>8.2223898000000002</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3177,7 +3119,7 @@
         <v>14575248</v>
       </c>
       <c r="I61">
-        <v>13.497287500000001</v>
+        <v>13.558527700000001</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3206,7 +3148,7 @@
         <v>5144520</v>
       </c>
       <c r="I62">
-        <v>4.2104235000000001</v>
+        <v>4.0709185000000003</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3235,7 +3177,7 @@
         <v>5146394</v>
       </c>
       <c r="I63">
-        <v>5.2641520999999996</v>
+        <v>5.0505224999999996</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3264,7 +3206,7 @@
         <v>4138109</v>
       </c>
       <c r="I64">
-        <v>3.7327211999999999</v>
+        <v>3.7560517</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,7 +3235,7 @@
         <v>4138060</v>
       </c>
       <c r="I65">
-        <v>4.6401057000000003</v>
+        <v>4.7810363999999996</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3322,7 +3264,7 @@
         <v>4138016</v>
       </c>
       <c r="I66">
-        <v>3.7294095999999999</v>
+        <v>3.7755014999999998</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3351,7 +3293,7 @@
         <v>4137967</v>
       </c>
       <c r="I67">
-        <v>4.7529607</v>
+        <v>4.7091662999999997</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3365,22 +3307,22 @@
         <v>6</v>
       </c>
       <c r="D68">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E68">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H68">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I68">
-        <v>4.8275794000000003</v>
+        <v>3.7187589999999999</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3394,22 +3336,22 @@
         <v>6</v>
       </c>
       <c r="D69">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E69">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H69">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I69">
-        <v>7.0648422000000002</v>
+        <v>4.6748257000000004</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3438,7 +3380,7 @@
         <v>4137964</v>
       </c>
       <c r="I70">
-        <v>3.7585674999999998</v>
+        <v>3.6406857000000001</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3467,7 +3409,7 @@
         <v>4137915</v>
       </c>
       <c r="I71">
-        <v>4.7112919</v>
+        <v>4.6595785999999997</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3496,7 +3438,7 @@
         <v>4137964</v>
       </c>
       <c r="I72">
-        <v>3.6770212</v>
+        <v>3.6992185000000002</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3525,7 +3467,7 @@
         <v>4137915</v>
       </c>
       <c r="I73">
-        <v>4.7608363000000002</v>
+        <v>4.7748555000000001</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3554,7 +3496,7 @@
         <v>14575397</v>
       </c>
       <c r="I74">
-        <v>8.4342644999999994</v>
+        <v>8.3257507999999998</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3583,7 +3525,7 @@
         <v>14575248</v>
       </c>
       <c r="I75">
-        <v>13.618422799999999</v>
+        <v>13.4555016</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3612,7 +3554,7 @@
         <v>5144520</v>
       </c>
       <c r="I76">
-        <v>4.2037315</v>
+        <v>4.1683174999999997</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3641,7 +3583,7 @@
         <v>5146394</v>
       </c>
       <c r="I77">
-        <v>5.3645066999999997</v>
+        <v>5.1847899999999996</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3670,7 +3612,7 @@
         <v>4138109</v>
       </c>
       <c r="I78">
-        <v>3.7629307000000001</v>
+        <v>3.7113982000000001</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3699,7 +3641,7 @@
         <v>4138060</v>
       </c>
       <c r="I79">
-        <v>4.7983976999999998</v>
+        <v>4.5885392999999999</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3728,7 +3670,7 @@
         <v>4138016</v>
       </c>
       <c r="I80">
-        <v>3.7310552000000001</v>
+        <v>3.7118319</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3757,7 +3699,7 @@
         <v>4137967</v>
       </c>
       <c r="I81">
-        <v>4.8532298999999997</v>
+        <v>4.7069932999999997</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3771,22 +3713,22 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E82">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H82">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I82">
-        <v>4.6866773999999998</v>
+        <v>3.8774723999999998</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3800,22 +3742,22 @@
         <v>6</v>
       </c>
       <c r="D83">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E83">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H83">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I83">
-        <v>7.0992980000000001</v>
+        <v>4.8491283999999997</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3844,7 +3786,7 @@
         <v>4137964</v>
       </c>
       <c r="I84">
-        <v>3.6919119999999999</v>
+        <v>3.7975660000000002</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3873,7 +3815,7 @@
         <v>4137915</v>
       </c>
       <c r="I85">
-        <v>4.7539474999999998</v>
+        <v>4.7062328000000004</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3902,7 +3844,7 @@
         <v>4137964</v>
       </c>
       <c r="I86">
-        <v>3.7898849999999999</v>
+        <v>3.6731169000000001</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3931,7 +3873,7 @@
         <v>4137915</v>
       </c>
       <c r="I87">
-        <v>4.7632994999999996</v>
+        <v>4.7011418000000003</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3960,7 +3902,7 @@
         <v>14575397</v>
       </c>
       <c r="I88">
-        <v>8.5499071999999998</v>
+        <v>8.0720872000000004</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,7 +3931,7 @@
         <v>14575248</v>
       </c>
       <c r="I89">
-        <v>13.5796729</v>
+        <v>13.4092675</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4018,7 +3960,7 @@
         <v>5144520</v>
       </c>
       <c r="I90">
-        <v>4.1454402999999997</v>
+        <v>4.2222761000000002</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4047,7 +3989,7 @@
         <v>5146394</v>
       </c>
       <c r="I91">
-        <v>5.1762639999999998</v>
+        <v>5.0746279999999997</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4076,7 +4018,7 @@
         <v>4138109</v>
       </c>
       <c r="I92">
-        <v>3.7803011999999998</v>
+        <v>3.6958213</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4105,7 +4047,7 @@
         <v>4138060</v>
       </c>
       <c r="I93">
-        <v>4.7993857999999996</v>
+        <v>4.6288685999999997</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4134,7 +4076,7 @@
         <v>4138016</v>
       </c>
       <c r="I94">
-        <v>3.6783928000000001</v>
+        <v>3.7949929999999998</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4163,7 +4105,7 @@
         <v>4137967</v>
       </c>
       <c r="I95">
-        <v>4.7243434999999998</v>
+        <v>4.7189950999999999</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4177,22 +4119,22 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E96">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H96">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I96">
-        <v>4.7633951000000003</v>
+        <v>3.7028401</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4206,22 +4148,22 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E97">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H97">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I97">
-        <v>7.0360997000000003</v>
+        <v>4.8543172999999999</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4250,7 +4192,7 @@
         <v>4137964</v>
       </c>
       <c r="I98">
-        <v>3.6917068</v>
+        <v>3.6551106999999998</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4279,7 +4221,7 @@
         <v>4137915</v>
       </c>
       <c r="I99">
-        <v>4.8196998000000004</v>
+        <v>4.6312011000000002</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4308,7 +4250,7 @@
         <v>4137964</v>
       </c>
       <c r="I100">
-        <v>3.7031399</v>
+        <v>3.8021984999999998</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4337,7 +4279,7 @@
         <v>4137915</v>
       </c>
       <c r="I101">
-        <v>4.9761549</v>
+        <v>4.6127623</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4366,7 +4308,7 @@
         <v>14575397</v>
       </c>
       <c r="I102">
-        <v>8.3568438999999994</v>
+        <v>8.1979320999999992</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4395,7 +4337,7 @@
         <v>14575248</v>
       </c>
       <c r="I103">
-        <v>13.623479</v>
+        <v>13.4820417</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -4424,7 +4366,7 @@
         <v>5144520</v>
       </c>
       <c r="I104">
-        <v>4.2113265000000002</v>
+        <v>4.1550554000000002</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4453,7 +4395,7 @@
         <v>5146394</v>
       </c>
       <c r="I105">
-        <v>5.0783864999999997</v>
+        <v>5.0441035000000003</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4482,7 +4424,7 @@
         <v>4138109</v>
       </c>
       <c r="I106">
-        <v>3.7456828999999998</v>
+        <v>3.6662889999999999</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4511,7 +4453,7 @@
         <v>4138060</v>
       </c>
       <c r="I107">
-        <v>4.8464840000000002</v>
+        <v>4.6504775</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4540,7 +4482,7 @@
         <v>4138016</v>
       </c>
       <c r="I108">
-        <v>3.7877765000000001</v>
+        <v>3.6307814</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4569,7 +4511,7 @@
         <v>4137967</v>
       </c>
       <c r="I109">
-        <v>4.8487743999999999</v>
+        <v>4.6473146999999999</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4583,22 +4525,22 @@
         <v>6</v>
       </c>
       <c r="D110">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E110">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H110">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I110">
-        <v>4.6629052</v>
+        <v>3.8488118</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4612,22 +4554,22 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E111">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H111">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I111">
-        <v>7.0732957000000001</v>
+        <v>4.6168306000000001</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4656,7 +4598,7 @@
         <v>4137964</v>
       </c>
       <c r="I112">
-        <v>3.7566464000000002</v>
+        <v>3.6593149999999999</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4685,7 +4627,7 @@
         <v>4137915</v>
       </c>
       <c r="I113">
-        <v>4.7924680999999998</v>
+        <v>4.5859946999999996</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4714,7 +4656,7 @@
         <v>4137964</v>
       </c>
       <c r="I114">
-        <v>3.7863964000000001</v>
+        <v>3.6835423</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4743,7 +4685,7 @@
         <v>4137915</v>
       </c>
       <c r="I115">
-        <v>4.8341988000000002</v>
+        <v>4.7249201000000003</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4772,7 +4714,7 @@
         <v>14575397</v>
       </c>
       <c r="I116">
-        <v>8.3598785000000007</v>
+        <v>8.3026570999999993</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4801,7 +4743,7 @@
         <v>14575248</v>
       </c>
       <c r="I117">
-        <v>13.530741799999999</v>
+        <v>13.728458</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4830,7 +4772,7 @@
         <v>5144520</v>
       </c>
       <c r="I118">
-        <v>4.2265017</v>
+        <v>4.2799854000000002</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4859,7 +4801,7 @@
         <v>5146394</v>
       </c>
       <c r="I119">
-        <v>5.3227098000000002</v>
+        <v>5.1707255999999999</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4888,7 +4830,7 @@
         <v>4138109</v>
       </c>
       <c r="I120">
-        <v>3.6953105000000002</v>
+        <v>3.7699292</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4917,7 +4859,7 @@
         <v>4138060</v>
       </c>
       <c r="I121">
-        <v>4.7587142</v>
+        <v>4.7074530000000001</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4946,7 +4888,7 @@
         <v>4138016</v>
       </c>
       <c r="I122">
-        <v>3.6704954999999999</v>
+        <v>3.6610413999999998</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4975,7 +4917,7 @@
         <v>4137967</v>
       </c>
       <c r="I123">
-        <v>4.7862923999999998</v>
+        <v>4.7349401999999996</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4989,22 +4931,22 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E124">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H124">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I124">
-        <v>4.6187107000000003</v>
+        <v>3.8314686999999998</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5018,22 +4960,22 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E125">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H125">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I125">
-        <v>7.1718431999999996</v>
+        <v>4.7001175999999996</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5062,7 +5004,7 @@
         <v>4137964</v>
       </c>
       <c r="I126">
-        <v>3.8470621999999999</v>
+        <v>3.7969563000000002</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5091,7 +5033,7 @@
         <v>4137915</v>
       </c>
       <c r="I127">
-        <v>4.7973724999999998</v>
+        <v>4.7516238</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5120,7 +5062,7 @@
         <v>4137964</v>
       </c>
       <c r="I128">
-        <v>3.7554523999999998</v>
+        <v>3.7627901000000001</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5149,7 +5091,7 @@
         <v>4137915</v>
       </c>
       <c r="I129">
-        <v>4.7895292999999999</v>
+        <v>4.7605675999999999</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5178,7 +5120,7 @@
         <v>14575397</v>
       </c>
       <c r="I130">
-        <v>8.3144539999999996</v>
+        <v>8.2419977000000006</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5207,7 +5149,7 @@
         <v>14575248</v>
       </c>
       <c r="I131">
-        <v>13.646995499999999</v>
+        <v>13.285753700000001</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5236,7 +5178,7 @@
         <v>5144520</v>
       </c>
       <c r="I132">
-        <v>4.2132217000000001</v>
+        <v>4.1528054000000001</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5265,7 +5207,7 @@
         <v>5146394</v>
       </c>
       <c r="I133">
-        <v>5.1359244999999998</v>
+        <v>5.1172424999999997</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5294,7 +5236,7 @@
         <v>4138109</v>
       </c>
       <c r="I134">
-        <v>3.6911345999999998</v>
+        <v>3.9695963999999999</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5323,7 +5265,7 @@
         <v>4138060</v>
       </c>
       <c r="I135">
-        <v>4.6979164000000004</v>
+        <v>4.8261251999999999</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5352,7 +5294,7 @@
         <v>4138016</v>
       </c>
       <c r="I136">
-        <v>3.7246244000000002</v>
+        <v>3.7741378999999999</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5381,7 +5323,7 @@
         <v>4137967</v>
       </c>
       <c r="I137">
-        <v>4.7036017000000001</v>
+        <v>4.6678797999999997</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5395,22 +5337,22 @@
         <v>6</v>
       </c>
       <c r="D138">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E138">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H138">
-        <v>6137964</v>
+        <v>4137966</v>
       </c>
       <c r="I138">
-        <v>4.7185135000000002</v>
+        <v>3.8608028000000001</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5424,22 +5366,22 @@
         <v>6</v>
       </c>
       <c r="D139">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E139">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
       <c r="G139">
-        <v>5239</v>
+        <v>5241</v>
       </c>
       <c r="H139">
-        <v>6137915</v>
+        <v>4137917</v>
       </c>
       <c r="I139">
-        <v>7.0713575999999998</v>
+        <v>4.6865019999999999</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5468,7 +5410,7 @@
         <v>4137964</v>
       </c>
       <c r="I140">
-        <v>3.7360926000000001</v>
+        <v>3.6358193999999999</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5497,7 +5439,7 @@
         <v>4137915</v>
       </c>
       <c r="I141">
-        <v>4.8057360999999998</v>
+        <v>4.7689060000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Results/RuntimeResult_RuleTest.xlsx
+++ b/Data/Results/RuntimeResult_RuleTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Hochschule Fulda\Master\Masterarbeit\Implementierungen\Data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EEF1D8-9B80-4632-A1DA-16F0731A42D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685F686-F110-4436-ABA5-D80CA228ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,7 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
